--- a/A.Shtykh Timesheet.xlsx
+++ b/A.Shtykh Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annagoreva/Projects/VAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE03B9E-9DB4-AC43-B707-6A8D87824AF7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B07553-984E-1A45-8DCF-A273314A75C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23380" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Total</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Learning documentation</t>
+  </si>
+  <si>
+    <t>Design mockups</t>
+  </si>
+  <si>
+    <t>Writiing client documentation</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -462,7 +468,7 @@
       </c>
       <c r="G2" s="9">
         <f>SUM(D3:D100)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -480,16 +486,32 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="13">
+        <v>43255</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="13">
+        <v>43256</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>

--- a/A.Shtykh Timesheet.xlsx
+++ b/A.Shtykh Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annagoreva/Projects/VAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B07553-984E-1A45-8DCF-A273314A75C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F891C-03A4-B84F-B3AB-74392930961E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23380" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Total</t>
   </si>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -153,6 +153,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +442,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,7 +472,7 @@
       </c>
       <c r="G2" s="9">
         <f>SUM(D3:D100)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -487,7 +491,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
-        <v>43255</v>
+        <v>43285</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -501,7 +505,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
-        <v>43256</v>
+        <v>43286</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -514,9 +518,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="14">
+        <v>43287</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
